--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4304c773d06c0a0e/Documentos/UiPath/MC_CASE/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_A9CB955554CF17999E60BFC86AAC03B207C2BAB2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3AEC660B-DB21-44F5-9FBE-0B06CE09E298}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="11_A9CB955554CF17999E60BFC86AAC03B207C2BAB2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{35672873-ADD9-46B7-B8AC-4167DE2C662E}"/>
   <bookViews>
-    <workbookView xWindow="-4380" yWindow="-15810" windowWidth="28350" windowHeight="11820" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1725" yWindow="-13260" windowWidth="28350" windowHeight="11820" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="56">
   <si>
     <t>Name</t>
   </si>
@@ -155,12 +155,6 @@
     <t>Must be TRUE or FALSE. If the value is TRUE and an error occurs in Initialization state or the MaxConsecutiveSystemExceptions is reached, the job is marked as Faulted.</t>
   </si>
   <si>
-    <t xml:space="preserve">Email_To </t>
-  </si>
-  <si>
-    <t xml:space="preserve">valterjmb@hotmail.com </t>
-  </si>
-  <si>
     <t>Vehicles_File</t>
   </si>
   <si>
@@ -177,6 +171,30 @@
   </si>
   <si>
     <t>Shared</t>
+  </si>
+  <si>
+    <t>Data\Output\</t>
+  </si>
+  <si>
+    <t>Output_Folder</t>
+  </si>
+  <si>
+    <t>User_RPA</t>
+  </si>
+  <si>
+    <t>Email_To</t>
+  </si>
+  <si>
+    <t>MC_Case_User_RPA</t>
+  </si>
+  <si>
+    <t>MC_Case_Email_To</t>
+  </si>
+  <si>
+    <t>Server</t>
+  </si>
+  <si>
+    <t>Domain</t>
   </si>
 </sst>
 </file>
@@ -250,6 +268,14 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -551,7 +577,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -613,7 +639,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
@@ -1632,10 +1658,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Z988"/>
+  <dimension ref="A1:Z986"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1818,7 +1844,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="A18" t="s">
         <v>42</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -1827,15 +1853,30 @@
     </row>
     <row r="19" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
     <row r="23" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="25" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2800,8 +2841,6 @@
     <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -2810,10 +2849,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Z1000"/>
+  <dimension ref="A1:Z999"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2829,13 +2868,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -2861,8 +2900,12 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
+      <c r="A2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3861,7 +3904,6 @@
     <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
